--- a/newPortfolio/newspapers.xlsx
+++ b/newPortfolio/newspapers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trungthieuquang/github/new_portfolio/newPortfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D9A9CA-AEC7-424E-B28F-AB195957B821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748DEAEF-CCC2-A446-90E1-E4AA166A9D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19160" xr2:uid="{701806B6-9D3F-40F5-B5A6-0DA0A66BA83F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>https://medium.com/@prabhath_kiran/simple-rest-api-using-flask-and-peewee-3d75c7bff515</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>topic</t>
+  </si>
+  <si>
+    <t>https://programminghistorian.org/en/lessons/creating-apis-with-python-and-flask</t>
+  </si>
+  <si>
+    <t>Creating API with Python and Flask</t>
   </si>
 </sst>
 </file>
@@ -533,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CCA041-A358-4DF8-8754-F013B4A3C0C0}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -656,6 +662,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{9E60B125-BBBB-477A-A6A8-D36C8279AF6C}"/>
